--- a/doc/import-person/Templat_เพิ่มข้อมูลบุคลากร.xlsx
+++ b/doc/import-person/Templat_เพิ่มข้อมูลบุคลากร.xlsx
@@ -420,7 +420,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,12 +433,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="222"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
@@ -454,6 +448,29 @@
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
@@ -479,25 +496,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -783,858 +808,887 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="2"/>
-    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="35" style="2" customWidth="1"/>
-    <col min="9" max="10" width="16.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="21.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="33.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="19.75" style="7" customWidth="1"/>
-    <col min="16" max="16" width="15.25" style="7" customWidth="1"/>
-    <col min="17" max="17" width="12.875" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="24.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1"/>
+    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="19.75" style="5" customWidth="1"/>
+    <col min="16" max="16" width="15.25" style="5" customWidth="1"/>
+    <col min="17" max="17" width="12.875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="12">
         <v>1097</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="17">
         <v>40270</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="7"/>
+      <c r="Q2" s="18"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="12">
         <v>1114</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="17">
         <v>57290</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
+      <c r="Q3" s="18"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="12">
         <v>1129</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="17">
         <v>56020</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
+      <c r="Q4" s="18"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="12">
         <v>1127</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="17">
         <v>33830</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
+      <c r="Q5" s="18"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="12">
         <v>1175</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="17">
         <v>50340</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
+      <c r="Q6" s="13"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="12">
         <v>1105</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="17">
         <v>43300</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
+      <c r="Q7" s="13"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="12">
         <v>3607</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="17">
         <v>35530</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
+      <c r="Q8" s="13"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="12">
         <v>1185</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="17">
         <v>26340</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
+      <c r="Q9" s="13"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="12">
         <v>1187</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="17">
         <v>22750</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
+      <c r="Q10" s="13"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="12">
         <v>1191</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="17">
         <v>43120</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
+      <c r="Q11" s="13"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="12">
         <v>1197</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="17">
         <v>44720</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
+      <c r="Q12" s="13"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="13"/>
+      <c r="K13" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="17">
         <v>17270</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
+      <c r="Q13" s="13"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="13"/>
+      <c r="K14" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="17">
         <v>17270</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
+      <c r="Q14" s="13"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="13"/>
+      <c r="H15" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="13"/>
+      <c r="K15" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="17">
         <v>19100</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
+      <c r="Q15" s="13"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="3" t="s">
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="17">
         <v>20650</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="S16" s="9"/>
-      <c r="T16" s="10"/>
+      <c r="Q16" s="13"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="8"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="L17" s="5"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="I18" s="4"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="I19" s="4"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="C20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="F21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="I25" s="4"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.65">
-      <c r="I26" s="4"/>
+      <c r="I26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/import-person/Templat_เพิ่มข้อมูลบุคลากร.xlsx
+++ b/doc/import-person/Templat_เพิ่มข้อมูลบุคลากร.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="129">
   <si>
     <t>เลขบัตรประชาชน</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>3659900370111</t>
-  </si>
-  <si>
-    <t>ผู้อำนวยการสำนักงาน (ผู้อำนวยการเฉพาะด้าน (แพทย์)สูง)</t>
   </si>
   <si>
     <t>สูง</t>
@@ -808,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" x14ac:dyDescent="0.65"/>
@@ -880,7 +877,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="10" t="s">
         <v>15</v>
@@ -907,16 +904,16 @@
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="14" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>22</v>
@@ -928,10 +925,10 @@
         <v>40270</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q2" s="18"/>
       <c r="S2" s="7"/>
@@ -939,7 +936,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="12">
         <v>1114</v>
@@ -958,13 +955,13 @@
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>21</v>
@@ -979,10 +976,10 @@
         <v>57290</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q3" s="18"/>
       <c r="S3" s="7"/>
@@ -990,7 +987,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A4" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="12">
         <v>1129</v>
@@ -1009,13 +1006,13 @@
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>29</v>
@@ -1030,10 +1027,10 @@
         <v>56020</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="18"/>
       <c r="S4" s="7"/>
@@ -1041,7 +1038,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A5" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="12">
         <v>1127</v>
@@ -1060,19 +1057,19 @@
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>29</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>23</v>
@@ -1081,10 +1078,10 @@
         <v>33830</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="18"/>
       <c r="S5" s="7"/>
@@ -1092,7 +1089,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A6" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="12">
         <v>1175</v>
@@ -1111,19 +1108,19 @@
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>23</v>
@@ -1132,10 +1129,10 @@
         <v>50340</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q6" s="13"/>
       <c r="S6" s="7"/>
@@ -1143,7 +1140,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A7" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="12">
         <v>1105</v>
@@ -1162,19 +1159,19 @@
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>40</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>23</v>
@@ -1183,10 +1180,10 @@
         <v>43300</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="13"/>
       <c r="S7" s="7"/>
@@ -1194,7 +1191,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A8" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="12">
         <v>3607</v>
@@ -1213,19 +1210,19 @@
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>40</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>23</v>
@@ -1234,10 +1231,10 @@
         <v>35530</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="13"/>
       <c r="S8" s="7"/>
@@ -1245,7 +1242,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A9" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="12">
         <v>1185</v>
@@ -1264,19 +1261,19 @@
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>23</v>
@@ -1285,10 +1282,10 @@
         <v>26340</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q9" s="13"/>
       <c r="S9" s="7"/>
@@ -1296,7 +1293,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A10" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="12">
         <v>1187</v>
@@ -1315,19 +1312,19 @@
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>43</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>23</v>
@@ -1336,10 +1333,10 @@
         <v>22750</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="S10" s="7"/>
@@ -1347,7 +1344,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A11" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="12">
         <v>1191</v>
@@ -1359,26 +1356,26 @@
         <v>33</v>
       </c>
       <c r="E11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>23</v>
@@ -1387,10 +1384,10 @@
         <v>43120</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="13"/>
       <c r="S11" s="7"/>
@@ -1398,7 +1395,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A12" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="12">
         <v>1197</v>
@@ -1410,26 +1407,26 @@
         <v>24</v>
       </c>
       <c r="E12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>29</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>23</v>
@@ -1438,10 +1435,10 @@
         <v>44720</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q12" s="13"/>
       <c r="S12" s="7"/>
@@ -1449,10 +1446,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A13" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>32</v>
@@ -1461,24 +1458,24 @@
         <v>33</v>
       </c>
       <c r="E13" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>80</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M13" s="16" t="s">
         <v>23</v>
@@ -1487,10 +1484,10 @@
         <v>17270</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="13"/>
       <c r="S13" s="7"/>
@@ -1498,10 +1495,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A14" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>32</v>
@@ -1510,24 +1507,24 @@
         <v>33</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>87</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M14" s="16" t="s">
         <v>23</v>
@@ -1536,10 +1533,10 @@
         <v>17270</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="13"/>
       <c r="S14" s="7"/>
@@ -1547,10 +1544,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A15" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>32</v>
@@ -1559,24 +1556,24 @@
         <v>33</v>
       </c>
       <c r="E15" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>90</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>23</v>
@@ -1585,10 +1582,10 @@
         <v>19100</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q15" s="13"/>
       <c r="S15" s="7"/>
@@ -1596,10 +1593,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A16" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>16</v>
@@ -1608,14 +1605,14 @@
         <v>17</v>
       </c>
       <c r="E16" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>95</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>46</v>
@@ -1630,10 +1627,10 @@
         <v>20650</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="13"/>
       <c r="S16" s="7"/>

--- a/doc/import-person/Templat_เพิ่มข้อมูลบุคลากร.xlsx
+++ b/doc/import-person/Templat_เพิ่มข้อมูลบุคลากร.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="131">
   <si>
     <t>เลขบัตรประชาชน</t>
   </si>
@@ -95,9 +95,6 @@
     <t>กลุ่มอำนวยการ</t>
   </si>
   <si>
-    <t>สำนักงานป้องกันควบคุมโรคที่ 6 ชลบุรี</t>
-  </si>
-  <si>
     <t>นาง</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>สูง</t>
   </si>
   <si>
-    <t>วันเกษียณอายุ</t>
-  </si>
-  <si>
     <t>3809800164640</t>
   </si>
   <si>
@@ -254,9 +248,6 @@
     <t>โรจน์รุ่งศศิธร</t>
   </si>
   <si>
-    <t>ราชการ</t>
-  </si>
-  <si>
     <t>3200900335451</t>
   </si>
   <si>
@@ -275,9 +266,6 @@
     <t>ลูกจ้างประจำ</t>
   </si>
   <si>
-    <t>ระดับ บ2</t>
-  </si>
-  <si>
     <t>3200101213355</t>
   </si>
   <si>
@@ -299,9 +287,6 @@
     <t>กลุ่มงานสนับสนุน</t>
   </si>
   <si>
-    <t>ระดับ ส2</t>
-  </si>
-  <si>
     <t>1420200008930</t>
   </si>
   <si>
@@ -374,43 +359,64 @@
     <t>19 เม.ย. 2553</t>
   </si>
   <si>
-    <t>1 ต.ค. 2578</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2567</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2563</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2572</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2561</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2573</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2577</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2585</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2564</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2569</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2570</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2576</t>
-  </si>
-  <si>
-    <t>1 ต.ค. 2588</t>
+    <t>บ2</t>
+  </si>
+  <si>
+    <t>ส2</t>
+  </si>
+  <si>
+    <t>สำนักงานป้องกันควบคุมโรคที่ 6 จังหวัดชลบุรี</t>
+  </si>
+  <si>
+    <t>ข้าราชการ</t>
+  </si>
+  <si>
+    <t>วันเดือนปีเกิด</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 2514</t>
+  </si>
+  <si>
+    <t>18 พ.ค. 2492</t>
+  </si>
+  <si>
+    <t>4 เม.ย. 2499</t>
+  </si>
+  <si>
+    <t>13 ต.ค. 2526</t>
+  </si>
+  <si>
+    <t>11 ก.ย. 2500</t>
+  </si>
+  <si>
+    <t>25 ม.ค. 2514</t>
+  </si>
+  <si>
+    <t>15 ส.ค. 2513</t>
+  </si>
+  <si>
+    <t>1 ธ.ค. 2520</t>
+  </si>
+  <si>
+    <t>11 ต.ค. 2516</t>
+  </si>
+  <si>
+    <t>29 ต.ค. 2524</t>
+  </si>
+  <si>
+    <t>16 ก.ค. 2501</t>
+  </si>
+  <si>
+    <t>21 ต.ค. 2514</t>
+  </si>
+  <si>
+    <t>22 มี.ค. 2514</t>
+  </si>
+  <si>
+    <t>18 ต.ค. 2516</t>
+  </si>
+  <si>
+    <t>30 ต.ค. 2520</t>
   </si>
 </sst>
 </file>
@@ -805,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" x14ac:dyDescent="0.65"/>
@@ -877,7 +883,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="10" t="s">
         <v>15</v>
@@ -885,7 +891,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="12">
         <v>1097</v>
@@ -907,25 +913,25 @@
         <v>20</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N2" s="17">
         <v>40270</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>116</v>
@@ -936,7 +942,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="12">
         <v>1114</v>
@@ -945,23 +951,23 @@
         <v>16</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>21</v>
@@ -970,13 +976,13 @@
         <v>22</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N3" s="17">
         <v>57290</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>117</v>
@@ -987,7 +993,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A4" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="12">
         <v>1129</v>
@@ -996,38 +1002,38 @@
         <v>16</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N4" s="17">
         <v>56020</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>118</v>
@@ -1038,7 +1044,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A5" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="12">
         <v>1127</v>
@@ -1047,38 +1053,38 @@
         <v>16</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N5" s="17">
         <v>33830</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P5" s="12" t="s">
         <v>119</v>
@@ -1089,50 +1095,50 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A6" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="12">
         <v>1175</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N6" s="17">
         <v>50340</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q6" s="13"/>
       <c r="S6" s="7"/>
@@ -1140,7 +1146,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A7" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="12">
         <v>1105</v>
@@ -1149,41 +1155,41 @@
         <v>16</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N7" s="17">
         <v>43300</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="13"/>
       <c r="S7" s="7"/>
@@ -1191,50 +1197,50 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A8" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="12">
         <v>3607</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="E8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N8" s="17">
         <v>35530</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="13"/>
       <c r="S8" s="7"/>
@@ -1242,7 +1248,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A9" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="12">
         <v>1185</v>
@@ -1251,41 +1257,41 @@
         <v>16</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N9" s="17">
         <v>26340</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q9" s="13"/>
       <c r="S9" s="7"/>
@@ -1293,7 +1299,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A10" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="12">
         <v>1187</v>
@@ -1305,38 +1311,38 @@
         <v>17</v>
       </c>
       <c r="E10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N10" s="17">
         <v>22750</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="S10" s="7"/>
@@ -1344,50 +1350,50 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A11" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="12">
         <v>1191</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N11" s="17">
         <v>43120</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="13"/>
       <c r="S11" s="7"/>
@@ -1395,7 +1401,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A12" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="12">
         <v>1197</v>
@@ -1404,41 +1410,41 @@
         <v>16</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N12" s="17">
         <v>44720</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q12" s="13"/>
       <c r="S12" s="7"/>
@@ -1446,48 +1452,48 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A13" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="E13" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>23</v>
+        <v>77</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="N13" s="17">
         <v>17270</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Q13" s="13"/>
       <c r="S13" s="7"/>
@@ -1495,48 +1501,48 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A14" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="E14" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>23</v>
+        <v>77</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="N14" s="17">
         <v>17270</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="13"/>
       <c r="S14" s="7"/>
@@ -1544,48 +1550,48 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A15" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="E15" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>23</v>
+        <v>86</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="N15" s="17">
         <v>19100</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q15" s="13"/>
       <c r="S15" s="7"/>
@@ -1593,10 +1599,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A16" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>16</v>
@@ -1605,32 +1611,32 @@
         <v>17</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="16" t="s">
-        <v>23</v>
+      <c r="M16" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="N16" s="17">
         <v>20650</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="13"/>
       <c r="S16" s="7"/>
